--- a/xlsx/洛杉磯快艇_intext.xlsx
+++ b/xlsx/洛杉磯快艇_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西部聯盟 (NBA)</t>
   </si>
   <si>
-    <t>政策_政策_加州_洛杉磯快艇</t>
+    <t>体育运动_体育运动_种族歧视_洛杉磯快艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%B5%9B%E5%8C%BA</t>
